--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -439,10 +439,8 @@
           <t>Report Activity</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
@@ -502,37 +500,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3989</v>
+        <v>1523</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>458</v>
+        <v>576</v>
       </c>
       <c r="E2" t="n">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>252.88</v>
+      </c>
+      <c r="J2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
-        <v>3024</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14447</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8</v>
-      </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="L2" t="n">
-        <v>3327</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +540,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488</v>
+        <v>269</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,28 +580,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812</v>
+        <v>325</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2143</v>
+        <v>24.39</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -622,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2954</v>
+        <v>863</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -640,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1429</v>
+        <v>9.09</v>
       </c>
       <c r="I5" t="n">
-        <v>29667</v>
+        <v>265.28</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -662,16 +660,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8299</v>
+        <v>4136</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
@@ -680,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1836</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>31417</v>
+        <v>444.14</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,28 +700,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>773</v>
+        <v>354</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>909</v>
+        <v>7.14</v>
       </c>
       <c r="I7" t="n">
-        <v>4000</v>
+        <v>83.33</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,37 +740,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5340</v>
+        <v>1599</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>501</v>
+        <v>734</v>
       </c>
       <c r="E8" t="n">
-        <v>580</v>
+        <v>777</v>
       </c>
       <c r="F8" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>226</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>26920</v>
+        <v>344.1</v>
       </c>
       <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
         <v>10</v>
       </c>
-      <c r="K8" t="n">
-        <v>17</v>
-      </c>
       <c r="L8" t="n">
-        <v>837</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="9">
@@ -782,31 +780,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2376</v>
+        <v>411</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E9" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>526</v>
+        <v>1.27</v>
       </c>
       <c r="I9" t="n">
-        <v>13050</v>
+        <v>174.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -822,28 +820,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1739</v>
+        <v>655</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4367</v>
+        <v>15.22</v>
       </c>
       <c r="I10" t="n">
-        <v>6603</v>
+        <v>73.44</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -862,28 +860,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1554</v>
+        <v>433</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E11" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7055</v>
+        <v>125.98</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -902,28 +900,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>800</v>
+        <v>268</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3000</v>
+        <v>63.64</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -942,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2793</v>
+        <v>1473</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14167</v>
+        <v>301.82</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -982,7 +980,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>681</v>
+        <v>321</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -991,16 +989,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1022,16 +1020,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2963</v>
+        <v>1298</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1043,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>27143</v>
+        <v>340.91</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1062,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5866</v>
+        <v>2397</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="F16" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>6488</v>
+        <v>10.64</v>
       </c>
       <c r="I16" t="n">
-        <v>22556</v>
+        <v>191.11</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="L16" t="n">
-        <v>17958</v>
+        <v>244.4</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3989</v>
+        <v>4007</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>458</v>
+        <v>879</v>
       </c>
       <c r="E2" t="n">
-        <v>595</v>
+        <v>1180</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>3024</v>
+        <v>5256</v>
       </c>
       <c r="I2" t="n">
-        <v>14447</v>
+        <v>12470</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="L2" t="n">
-        <v>3327</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1389</v>
+        <v>2625</v>
       </c>
       <c r="I4" t="n">
-        <v>2143</v>
+        <v>1154</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -622,28 +622,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2954</v>
+        <v>2992</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1429</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>29667</v>
+        <v>30341</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8299</v>
+        <v>8493</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1836</v>
+        <v>1646</v>
       </c>
       <c r="I6" t="n">
-        <v>31417</v>
+        <v>27621</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,28 +702,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="I7" t="n">
-        <v>4000</v>
+        <v>5161</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5340</v>
+        <v>5307</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>501</v>
+        <v>812</v>
       </c>
       <c r="E8" t="n">
-        <v>580</v>
+        <v>988</v>
       </c>
       <c r="F8" t="n">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>226</v>
+        <v>2952</v>
       </c>
       <c r="I8" t="n">
-        <v>26920</v>
+        <v>26278</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>837</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9">
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2376</v>
+        <v>2349</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="E9" t="n">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>526</v>
+        <v>326</v>
       </c>
       <c r="I9" t="n">
-        <v>13050</v>
+        <v>14883</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1739</v>
+        <v>1704</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -862,31 +862,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1554</v>
+        <v>1596</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="E11" t="n">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>141</v>
+        <v>1624</v>
       </c>
       <c r="I11" t="n">
-        <v>7055</v>
+        <v>6651</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2793</v>
+        <v>2747</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>3333</v>
       </c>
       <c r="I13" t="n">
-        <v>14167</v>
+        <v>12647</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50</v>
+        <v>3333</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2963</v>
+        <v>2991</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>27143</v>
+        <v>24584</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5866</v>
+        <v>5819</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="E16" t="n">
-        <v>538</v>
+        <v>1087</v>
       </c>
       <c r="F16" t="n">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>6488</v>
+        <v>8365</v>
       </c>
       <c r="I16" t="n">
-        <v>22556</v>
+        <v>20189</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="L16" t="n">
-        <v>17958</v>
+        <v>19233</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4007</v>
+        <v>943</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>879</v>
+        <v>453.632</v>
       </c>
       <c r="E2" t="n">
-        <v>1180</v>
+        <v>1225.662</v>
       </c>
       <c r="F2" t="n">
-        <v>118</v>
+        <v>481</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>5256</v>
+        <v>14967</v>
       </c>
       <c r="I2" t="n">
-        <v>12470</v>
+        <v>9320</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>4527</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480</v>
+        <v>271</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>816</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2625</v>
+        <v>4381</v>
       </c>
       <c r="I4" t="n">
-        <v>1154</v>
+        <v>561</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2992</v>
+        <v>1556</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>2273</v>
       </c>
       <c r="I5" t="n">
-        <v>30341</v>
+        <v>26672</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8493</v>
+        <v>1895</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>464</v>
       </c>
       <c r="E6" t="n">
-        <v>215</v>
+        <v>492</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1646</v>
+        <v>2867</v>
       </c>
       <c r="I6" t="n">
-        <v>27621</v>
+        <v>36871</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,31 +702,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>801</v>
+        <v>140</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>882</v>
+        <v>714</v>
       </c>
       <c r="I7" t="n">
-        <v>5161</v>
+        <v>6184</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -742,68 +742,68 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5307</v>
+        <v>809</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>812</v>
+        <v>767</v>
       </c>
       <c r="E8" t="n">
-        <v>988</v>
+        <v>1189</v>
       </c>
       <c r="F8" t="n">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>2952</v>
+        <v>4381</v>
       </c>
       <c r="I8" t="n">
-        <v>26278</v>
+        <v>7052</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="L8" t="n">
-        <v>781</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB CT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2349</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>14883</v>
+        <v>2500</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -818,35 +818,35 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1704</v>
+        <v>1048</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>744</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>806</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>4367</v>
+        <v>6462</v>
       </c>
       <c r="I10" t="n">
-        <v>6603</v>
+        <v>13839</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -858,35 +858,35 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1596</v>
+        <v>1056</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>275</v>
+      </c>
+      <c r="E11" t="n">
+        <v>299</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>968</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10200</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>241</v>
-      </c>
-      <c r="E11" t="n">
-        <v>247</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1624</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6651</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -898,35 +898,35 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TEC CT</t>
+          <t>NOT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>779</v>
+        <v>1405</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="F12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4367</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6603</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>909</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -938,35 +938,35 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2747</v>
+        <v>826</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
+        <v>502</v>
+      </c>
+      <c r="E13" t="n">
+        <v>529</v>
+      </c>
+      <c r="F13" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
-        <v>24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3333</v>
+        <v>3968</v>
       </c>
       <c r="I13" t="n">
-        <v>12647</v>
+        <v>6224</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -978,32 +978,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TEC CT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>680</v>
+        <v>272</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1018,35 +1018,35 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2991</v>
+        <v>502</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>8404</v>
       </c>
       <c r="I15" t="n">
-        <v>24584</v>
+        <v>25094</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1058,41 +1058,121 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>194</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>50</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>81</v>
+      </c>
+      <c r="E17" t="n">
+        <v>87</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2857</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17004</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>ZERO</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>5819</v>
-      </c>
-      <c r="C16" t="n">
-        <v>42</v>
-      </c>
-      <c r="D16" t="n">
-        <v>317</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1087</v>
-      </c>
-      <c r="F16" t="n">
-        <v>263</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8365</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20189</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>451</v>
-      </c>
-      <c r="L16" t="n">
-        <v>19233</v>
+      <c r="B18" t="n">
+        <v>3673</v>
+      </c>
+      <c r="C18" t="n">
+        <v>51</v>
+      </c>
+      <c r="D18" t="n">
+        <v>561</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2482</v>
+      </c>
+      <c r="F18" t="n">
+        <v>943</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14282</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15925</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>900</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16154</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306</v>
+        <v>1112</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>329.147</v>
+        <v>889</v>
       </c>
       <c r="E2" t="n">
-        <v>721.177</v>
+        <v>1009</v>
       </c>
       <c r="F2" t="n">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>7727</v>
+        <v>977</v>
       </c>
       <c r="I2" t="n">
-        <v>6353</v>
+        <v>24315</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K2" t="n">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="L2" t="n">
-        <v>6210</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="3">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3017</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>658</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1690</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>158</v>
-      </c>
-      <c r="F4" t="n">
-        <v>59</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3734</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,28 +622,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1554</v>
+        <v>1512</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>769</v>
+        <v>1679</v>
       </c>
       <c r="I5" t="n">
-        <v>24849</v>
+        <v>27754</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1890</v>
+        <v>1543</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>347</v>
+        <v>256</v>
       </c>
       <c r="E6" t="n">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>2598</v>
       </c>
       <c r="I6" t="n">
-        <v>96494</v>
+        <v>75143</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,28 +702,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>1019</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>505</v>
+      </c>
+      <c r="E8" t="n">
+        <v>547</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
-        <v>687</v>
-      </c>
-      <c r="E8" t="n">
-        <v>960</v>
-      </c>
-      <c r="F8" t="n">
-        <v>198</v>
-      </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3275</v>
+        <v>110</v>
       </c>
       <c r="I8" t="n">
-        <v>7080</v>
+        <v>15267</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="L8" t="n">
-        <v>949</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2656</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>652</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1038</v>
+        <v>1316</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E10" t="n">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>6588</v>
+        <v>2258</v>
       </c>
       <c r="I10" t="n">
-        <v>9944</v>
+        <v>13472</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1787</v>
+        <v>1765</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="E11" t="n">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1126</v>
+        <v>1524</v>
       </c>
       <c r="I11" t="n">
-        <v>9954</v>
+        <v>14205</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -902,31 +902,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1402</v>
+        <v>1374</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2491</v>
+        <v>5377</v>
       </c>
       <c r="I12" t="n">
-        <v>5878</v>
+        <v>6717</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -942,31 +942,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>424</v>
+        <v>219</v>
       </c>
       <c r="E13" t="n">
-        <v>436</v>
+        <v>222</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>74</v>
+        <v>1250</v>
       </c>
       <c r="I13" t="n">
-        <v>6435</v>
+        <v>13201</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3086</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>833</v>
+        <v>6154</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1022,31 +1022,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>502</v>
+        <v>416</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11131</v>
+        <v>30784</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1826</v>
+        <v>1751</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3472</v>
+        <v>1429</v>
       </c>
       <c r="I17" t="n">
-        <v>5301</v>
+        <v>22143</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3854</v>
+        <v>4175</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="E18" t="n">
-        <v>1539</v>
+        <v>619</v>
       </c>
       <c r="F18" t="n">
-        <v>483</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>9547</v>
+        <v>1015</v>
       </c>
       <c r="I18" t="n">
-        <v>13414</v>
+        <v>26791</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>649</v>
+        <v>306</v>
       </c>
       <c r="L18" t="n">
-        <v>12228</v>
+        <v>18527</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112</v>
+        <v>984</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>889</v>
+        <v>764.322</v>
       </c>
       <c r="E2" t="n">
-        <v>1009</v>
+        <v>1112.327</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>977</v>
+        <v>3905</v>
       </c>
       <c r="I2" t="n">
-        <v>24315</v>
+        <v>20215</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>6062</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>658</v>
+        <v>1841</v>
       </c>
       <c r="I4" t="n">
-        <v>1690</v>
+        <v>1411</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512</v>
+        <v>1098</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="E5" t="n">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2722</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25952</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1679</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27754</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1543</v>
+        <v>1854</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>256</v>
+        <v>540</v>
       </c>
       <c r="E6" t="n">
-        <v>271</v>
+        <v>565</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2598</v>
+        <v>4587</v>
       </c>
       <c r="I6" t="n">
-        <v>75143</v>
+        <v>68539</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,28 +702,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1538</v>
+        <v>714</v>
       </c>
       <c r="I7" t="n">
-        <v>4286</v>
+        <v>6349</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1019</v>
+        <v>805</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>505</v>
+        <v>1041</v>
       </c>
       <c r="E8" t="n">
-        <v>547</v>
+        <v>1186</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>110</v>
+        <v>727</v>
       </c>
       <c r="I8" t="n">
-        <v>15267</v>
+        <v>13992</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="L8" t="n">
-        <v>1077</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1316</v>
+        <v>288</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>498</v>
+        <v>930</v>
       </c>
       <c r="E10" t="n">
-        <v>519</v>
+        <v>976</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>2258</v>
+        <v>2620</v>
       </c>
       <c r="I10" t="n">
-        <v>13472</v>
+        <v>14538</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1765</v>
+        <v>1779</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="E11" t="n">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1524</v>
+        <v>607</v>
       </c>
       <c r="I11" t="n">
-        <v>14205</v>
+        <v>11436</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1374</v>
+        <v>1393</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="E13" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="I13" t="n">
-        <v>13201</v>
+        <v>11190</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14">
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6154</v>
+        <v>6000</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1022,31 +1022,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E15" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="I15" t="n">
-        <v>30784</v>
+        <v>30003</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1751</v>
+        <v>1812</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>769</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18975</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1429</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22143</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4175</v>
+        <v>3653</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>294</v>
+        <v>650</v>
       </c>
       <c r="E18" t="n">
-        <v>619</v>
+        <v>1656</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>1015</v>
+        <v>3746</v>
       </c>
       <c r="I18" t="n">
-        <v>26791</v>
+        <v>22119</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
-        <v>306</v>
+        <v>825</v>
       </c>
       <c r="L18" t="n">
-        <v>18527</v>
+        <v>18065</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>984</v>
+        <v>311</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>392</v>
+      </c>
+      <c r="E2" t="n">
+        <v>446</v>
+      </c>
+      <c r="F2" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
-        <v>764.322</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1112.327</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66</v>
-      </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3905</v>
+        <v>2180</v>
       </c>
       <c r="I2" t="n">
-        <v>20215</v>
+        <v>23478</v>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="L2" t="n">
-        <v>6742</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +548,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6129</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>164</v>
-      </c>
-      <c r="E4" t="n">
-        <v>201</v>
-      </c>
-      <c r="F4" t="n">
-        <v>37</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>1841</v>
+        <v>833</v>
       </c>
       <c r="I4" t="n">
-        <v>1411</v>
+        <v>2424</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1098</v>
+        <v>1550</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2722</v>
+        <v>3333</v>
       </c>
       <c r="I5" t="n">
-        <v>25952</v>
+        <v>24333</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854</v>
+        <v>1842</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>540</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
-        <v>565</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4587</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>68539</v>
+        <v>87777</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,28 +702,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6349</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1041</v>
+        <v>234</v>
       </c>
       <c r="E8" t="n">
-        <v>1186</v>
+        <v>270</v>
       </c>
       <c r="F8" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>727</v>
       </c>
       <c r="I8" t="n">
-        <v>13992</v>
+        <v>14734</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="L8" t="n">
-        <v>920</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="9">
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>4231</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>930</v>
+        <v>135</v>
       </c>
       <c r="E10" t="n">
-        <v>976</v>
+        <v>197</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2620</v>
+        <v>3825</v>
       </c>
       <c r="I10" t="n">
-        <v>14538</v>
+        <v>7816</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1779</v>
+        <v>1044</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>607</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>11436</v>
+        <v>6330</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -902,31 +902,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1393</v>
+        <v>1401</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="F12" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5377</v>
+        <v>8800</v>
       </c>
       <c r="I12" t="n">
-        <v>6717</v>
+        <v>14576</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="E13" t="n">
-        <v>430</v>
+        <v>126</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11892</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>833</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11190</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>417</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="14">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>6000</v>
+        <v>5714</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1022,31 +1022,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1250</v>
+        <v>25</v>
       </c>
       <c r="I15" t="n">
-        <v>30003</v>
+        <v>11111</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>769</v>
+        <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>18975</v>
+        <v>12857</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3653</v>
+        <v>4046</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>650</v>
+        <v>112</v>
       </c>
       <c r="E18" t="n">
-        <v>1656</v>
+        <v>268</v>
       </c>
       <c r="F18" t="n">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3746</v>
+        <v>1775</v>
       </c>
       <c r="I18" t="n">
-        <v>22119</v>
+        <v>22264</v>
       </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>825</v>
+        <v>135</v>
       </c>
       <c r="L18" t="n">
-        <v>18065</v>
+        <v>14456</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>311</v>
+        <v>987</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>392</v>
+        <v>1340</v>
       </c>
       <c r="E2" t="n">
-        <v>446</v>
+        <v>1567</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2180</v>
+        <v>4030</v>
       </c>
       <c r="I2" t="n">
-        <v>23478</v>
+        <v>22395</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="L2" t="n">
-        <v>2909</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="3">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="I3" t="n">
-        <v>6129</v>
+        <v>4846</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>833</v>
+        <v>769</v>
       </c>
       <c r="I4" t="n">
-        <v>2424</v>
+        <v>1810</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,28 +622,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3333</v>
+        <v>1611</v>
       </c>
       <c r="I5" t="n">
-        <v>24333</v>
+        <v>24975</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1842</v>
+        <v>1813</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>1985</v>
       </c>
       <c r="I6" t="n">
-        <v>87777</v>
+        <v>87005</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813</v>
+        <v>1027</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>798</v>
+      </c>
+      <c r="E8" t="n">
+        <v>899</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>234</v>
-      </c>
-      <c r="E8" t="n">
-        <v>270</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>727</v>
+        <v>473</v>
       </c>
       <c r="I8" t="n">
-        <v>14734</v>
+        <v>14040</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="L8" t="n">
-        <v>1292</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="9">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="I9" t="n">
-        <v>4231</v>
+        <v>5000</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>254</v>
+        <v>576</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>135</v>
+        <v>490</v>
       </c>
       <c r="E10" t="n">
-        <v>197</v>
+        <v>631</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>3825</v>
+        <v>6119</v>
       </c>
       <c r="I10" t="n">
-        <v>7816</v>
+        <v>6425</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,31 +862,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="I11" t="n">
-        <v>6330</v>
+        <v>5018</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125</v>
+        <v>403</v>
       </c>
       <c r="E13" t="n">
-        <v>126</v>
+        <v>404</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11892</v>
+        <v>13446</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1429</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="I14" t="n">
-        <v>5714</v>
+        <v>5105</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>484</v>
+        <v>295</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="I15" t="n">
-        <v>11111</v>
+        <v>13770</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>2335</v>
       </c>
       <c r="I17" t="n">
-        <v>12857</v>
+        <v>24002</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4046</v>
+        <v>4079</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>112</v>
+        <v>430</v>
       </c>
       <c r="E18" t="n">
-        <v>268</v>
+        <v>981</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>1775</v>
+        <v>1421</v>
       </c>
       <c r="I18" t="n">
-        <v>22264</v>
+        <v>21701</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>135</v>
+        <v>497</v>
       </c>
       <c r="L18" t="n">
-        <v>14456</v>
+        <v>14496</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>987</v>
+        <v>262</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1340</v>
+        <v>606</v>
       </c>
       <c r="E2" t="n">
-        <v>1567</v>
+        <v>634</v>
       </c>
       <c r="F2" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4030</v>
+        <v>1902</v>
       </c>
       <c r="I2" t="n">
-        <v>22395</v>
+        <v>31044</v>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>3369</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4846</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1810</v>
+        <v>5366</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1543</v>
+        <v>1561</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1611</v>
+        <v>1364</v>
       </c>
       <c r="I5" t="n">
-        <v>24975</v>
+        <v>28525</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1813</v>
+        <v>1912</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="E6" t="n">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>1985</v>
+        <v>2362</v>
       </c>
       <c r="I6" t="n">
-        <v>87005</v>
+        <v>55549</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,28 +702,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7059</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1027</v>
+        <v>812</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>798</v>
+        <v>390</v>
       </c>
       <c r="E8" t="n">
-        <v>899</v>
+        <v>404</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>473</v>
+        <v>39</v>
       </c>
       <c r="I8" t="n">
-        <v>14040</v>
+        <v>17307</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1164</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>576</v>
+        <v>265</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>490</v>
+        <v>277</v>
       </c>
       <c r="E10" t="n">
-        <v>631</v>
+        <v>333</v>
       </c>
       <c r="F10" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>6119</v>
+        <v>5147</v>
       </c>
       <c r="I10" t="n">
-        <v>6425</v>
+        <v>10353</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,31 +862,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1040</v>
+        <v>1057</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>101</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>198</v>
-      </c>
-      <c r="E11" t="n">
-        <v>206</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="I11" t="n">
-        <v>5018</v>
+        <v>17878</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -902,28 +902,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1396</v>
+        <v>1407</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E12" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>8800</v>
+        <v>2059</v>
       </c>
       <c r="I12" t="n">
-        <v>14576</v>
+        <v>4336</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="E13" t="n">
-        <v>404</v>
+        <v>185</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13446</v>
+        <v>16330</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5105</v>
+        <v>8000</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1022,31 +1022,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>295</v>
+        <v>507</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13770</v>
+        <v>20238</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1801</v>
+        <v>1827</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18036</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2335</v>
-      </c>
-      <c r="I17" t="n">
-        <v>24002</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4079</v>
+        <v>3903</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>981</v>
+        <v>180</v>
       </c>
       <c r="F18" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1421</v>
+        <v>1096</v>
       </c>
       <c r="I18" t="n">
-        <v>21701</v>
+        <v>40465</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>497</v>
+        <v>95</v>
       </c>
       <c r="L18" t="n">
-        <v>14496</v>
+        <v>14656</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262</v>
+        <v>957</v>
       </c>
       <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>606</v>
-      </c>
-      <c r="E2" t="n">
-        <v>634</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" t="n">
-        <v>1902</v>
+        <v>932</v>
       </c>
       <c r="I2" t="n">
-        <v>31044</v>
+        <v>29202</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L2" t="n">
-        <v>909</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="I4" t="n">
-        <v>5366</v>
+        <v>4242</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -622,28 +622,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1561</v>
+        <v>1350</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E5" t="n">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1364</v>
+        <v>1429</v>
       </c>
       <c r="I5" t="n">
-        <v>28525</v>
+        <v>27786</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1912</v>
+        <v>1181</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="E6" t="n">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2362</v>
+        <v>3523</v>
       </c>
       <c r="I6" t="n">
-        <v>55549</v>
+        <v>48027</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1053</v>
+        <v>435</v>
       </c>
       <c r="I7" t="n">
-        <v>7059</v>
+        <v>7442</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>390</v>
+        <v>789</v>
       </c>
       <c r="E8" t="n">
-        <v>404</v>
+        <v>829</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I8" t="n">
-        <v>17307</v>
+        <v>16783</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L8" t="n">
-        <v>386</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>265</v>
+        <v>1233</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>277</v>
+        <v>627</v>
       </c>
       <c r="E10" t="n">
-        <v>333</v>
+        <v>707</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>5147</v>
+        <v>4584</v>
       </c>
       <c r="I10" t="n">
-        <v>10353</v>
+        <v>10597</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -862,28 +862,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1057</v>
+        <v>1026</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="E11" t="n">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="I11" t="n">
-        <v>17878</v>
+        <v>15492</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1407</v>
+        <v>1383</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>185</v>
+        <v>364</v>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>364</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16330</v>
+        <v>16157</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>507</v>
+        <v>364</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20238</v>
+        <v>17700</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10000</v>
+        <v>3333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1827</v>
+        <v>1710</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>18036</v>
+        <v>16545</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3903</v>
+        <v>3987</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E18" t="n">
-        <v>180</v>
+        <v>535</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1096</v>
+        <v>891</v>
       </c>
       <c r="I18" t="n">
-        <v>40465</v>
+        <v>31702</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="L18" t="n">
-        <v>14656</v>
+        <v>15833</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>957</v>
+        <v>919</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1400</v>
+        <v>339</v>
       </c>
       <c r="E2" t="n">
-        <v>1504</v>
+        <v>401</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>932</v>
+        <v>4090</v>
       </c>
       <c r="I2" t="n">
-        <v>29202</v>
+        <v>28304</v>
       </c>
       <c r="J2" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>1836</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>550</v>
+        <v>1429</v>
       </c>
       <c r="I4" t="n">
-        <v>4242</v>
+        <v>3000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1350</v>
+        <v>1549</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1429</v>
+        <v>1458</v>
       </c>
       <c r="I5" t="n">
-        <v>27786</v>
+        <v>29448</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181</v>
+        <v>1802</v>
       </c>
       <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>327</v>
-      </c>
-      <c r="E6" t="n">
-        <v>351</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3523</v>
+        <v>1423</v>
       </c>
       <c r="I6" t="n">
-        <v>48027</v>
+        <v>41884</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,31 +702,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>7442</v>
+        <v>4286</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>789</v>
+        <v>281</v>
       </c>
       <c r="E8" t="n">
-        <v>829</v>
+        <v>311</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="I8" t="n">
-        <v>16783</v>
+        <v>14989</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
         <v>18</v>
       </c>
-      <c r="K8" t="n">
-        <v>33</v>
-      </c>
       <c r="L8" t="n">
-        <v>596</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9">
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8000</v>
+        <v>3077</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1233</v>
+        <v>258</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>627</v>
+        <v>212</v>
       </c>
       <c r="E10" t="n">
-        <v>707</v>
+        <v>290</v>
       </c>
       <c r="F10" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>4584</v>
+        <v>4590</v>
       </c>
       <c r="I10" t="n">
-        <v>10597</v>
+        <v>7574</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -862,28 +862,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>197</v>
+        <v>563</v>
       </c>
       <c r="I11" t="n">
-        <v>15492</v>
+        <v>6915</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -902,31 +902,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1383</v>
+        <v>1401</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E12" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2059</v>
+        <v>2137</v>
       </c>
       <c r="I12" t="n">
-        <v>4336</v>
+        <v>13261</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>860</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="E13" t="n">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16157</v>
+        <v>14384</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="I14" t="n">
-        <v>8000</v>
+        <v>3871</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>364</v>
+        <v>483</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17700</v>
+        <v>28667</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1710</v>
+        <v>1808</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>16545</v>
+        <v>28750</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3987</v>
+        <v>3870</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="E18" t="n">
-        <v>535</v>
+        <v>354</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>891</v>
+        <v>842</v>
       </c>
       <c r="I18" t="n">
-        <v>31702</v>
+        <v>21222</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="L18" t="n">
-        <v>15833</v>
+        <v>19073</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919</v>
+        <v>116</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>339</v>
+        <v>1222</v>
       </c>
       <c r="E2" t="n">
-        <v>401</v>
+        <v>1499</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>4090</v>
+        <v>6240</v>
       </c>
       <c r="I2" t="n">
-        <v>28304</v>
+        <v>19322</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="L2" t="n">
-        <v>3404</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+      <c r="E4" t="n">
+        <v>53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>1429</v>
+        <v>2157</v>
       </c>
       <c r="I4" t="n">
-        <v>3000</v>
+        <v>2162</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1549</v>
+        <v>1358</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1458</v>
+        <v>650</v>
       </c>
       <c r="I5" t="n">
-        <v>29448</v>
+        <v>25408</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>125</v>
+        <v>342</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" t="n">
-        <v>1423</v>
+        <v>2197</v>
       </c>
       <c r="I6" t="n">
-        <v>41884</v>
+        <v>35599</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,31 +702,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>588</v>
       </c>
       <c r="I7" t="n">
-        <v>4286</v>
+        <v>7917</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>807</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F8" t="n">
+        <v>61</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
         <v>808</v>
       </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>281</v>
-      </c>
-      <c r="E8" t="n">
-        <v>311</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>207</v>
-      </c>
       <c r="I8" t="n">
-        <v>14989</v>
+        <v>12063</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K8" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L8" t="n">
-        <v>741</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>258</v>
+        <v>1020</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>212</v>
+        <v>711</v>
       </c>
       <c r="E10" t="n">
-        <v>290</v>
+        <v>854</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4832</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9563</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4590</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7574</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,31 +862,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1046</v>
+        <v>1772</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>563</v>
+        <v>2542</v>
       </c>
       <c r="I11" t="n">
-        <v>6915</v>
+        <v>10263</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -942,31 +942,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89</v>
+        <v>866</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="E13" t="n">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="I13" t="n">
-        <v>14384</v>
+        <v>12547</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I14" t="n">
         <v>3871</v>
@@ -1022,28 +1022,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="I15" t="n">
-        <v>28667</v>
+        <v>24369</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1808</v>
+        <v>1797</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="I17" t="n">
-        <v>28750</v>
+        <v>21319</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3870</v>
+        <v>3642</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="E18" t="n">
-        <v>354</v>
+        <v>1430</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>842</v>
+        <v>2818</v>
       </c>
       <c r="I18" t="n">
-        <v>21222</v>
+        <v>16631</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K18" t="n">
-        <v>181</v>
+        <v>802</v>
       </c>
       <c r="L18" t="n">
-        <v>19073</v>
+        <v>22002</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116</v>
+        <v>1118</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>672.016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>987.027</v>
+      </c>
+      <c r="F2" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>1222</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1499</v>
-      </c>
-      <c r="F2" t="n">
-        <v>106</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
       <c r="H2" t="n">
-        <v>6240</v>
+        <v>6744</v>
       </c>
       <c r="I2" t="n">
-        <v>19322</v>
+        <v>20346</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>4440</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2157</v>
+        <v>2090</v>
       </c>
       <c r="I4" t="n">
-        <v>2162</v>
+        <v>2222</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1358</v>
+        <v>1520</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="E5" t="n">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>650</v>
+        <v>786</v>
       </c>
       <c r="I5" t="n">
-        <v>25408</v>
+        <v>25209</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1799</v>
+        <v>1682</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>342</v>
+        <v>472</v>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>493</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>2197</v>
+        <v>4876</v>
       </c>
       <c r="I6" t="n">
-        <v>35599</v>
+        <v>39476</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -720,13 +720,13 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>588</v>
+        <v>423</v>
       </c>
       <c r="I7" t="n">
-        <v>7917</v>
+        <v>7761</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>807</v>
+        <v>1022</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>875</v>
+        <v>1206</v>
       </c>
       <c r="E8" t="n">
-        <v>1012</v>
+        <v>1361</v>
       </c>
       <c r="F8" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="I8" t="n">
-        <v>12063</v>
+        <v>12268</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L8" t="n">
-        <v>841</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -822,28 +822,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020</v>
+        <v>1323</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>711</v>
+        <v>934</v>
       </c>
       <c r="E10" t="n">
-        <v>854</v>
+        <v>1101</v>
       </c>
       <c r="F10" t="n">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>4832</v>
+        <v>5106</v>
       </c>
       <c r="I10" t="n">
-        <v>9563</v>
+        <v>8826</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -862,16 +862,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1772</v>
+        <v>1019</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="E11" t="n">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
@@ -880,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2542</v>
+        <v>1980</v>
       </c>
       <c r="I11" t="n">
-        <v>10263</v>
+        <v>14401</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="E13" t="n">
-        <v>305</v>
+        <v>420</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>556</v>
+        <v>435</v>
       </c>
       <c r="I13" t="n">
-        <v>12547</v>
+        <v>12051</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
@@ -1003,7 +1003,7 @@
         <v>303</v>
       </c>
       <c r="I14" t="n">
-        <v>3871</v>
+        <v>3750</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1022,31 +1022,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1017</v>
+        <v>3065</v>
       </c>
       <c r="I15" t="n">
-        <v>24369</v>
+        <v>22337</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1797</v>
+        <v>1759</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="I17" t="n">
-        <v>21319</v>
+        <v>21824</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3642</v>
+        <v>4375</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>477</v>
+        <v>661</v>
       </c>
       <c r="E18" t="n">
-        <v>1430</v>
+        <v>1874</v>
       </c>
       <c r="F18" t="n">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>2818</v>
+        <v>2787</v>
       </c>
       <c r="I18" t="n">
-        <v>16631</v>
+        <v>15027</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>802</v>
+        <v>1051</v>
       </c>
       <c r="L18" t="n">
-        <v>22002</v>
+        <v>20955</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1118</v>
+        <v>1050</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>672.016</v>
+        <v>844</v>
       </c>
       <c r="E2" t="n">
-        <v>987.027</v>
+        <v>974</v>
       </c>
       <c r="F2" t="n">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>6744</v>
+        <v>3412</v>
       </c>
       <c r="I2" t="n">
-        <v>20346</v>
+        <v>20131</v>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="L2" t="n">
-        <v>4207</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="3">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4932</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>625</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2090</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2222</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1520</v>
+        <v>1333</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>786</v>
+        <v>1623</v>
       </c>
       <c r="I5" t="n">
-        <v>25209</v>
+        <v>32488</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1682</v>
+        <v>1633</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>472</v>
+        <v>182</v>
       </c>
       <c r="E6" t="n">
-        <v>493</v>
+        <v>183</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4876</v>
+        <v>843</v>
       </c>
       <c r="I6" t="n">
-        <v>39476</v>
+        <v>85731</v>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,31 +702,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7761</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1206</v>
+        <v>672</v>
       </c>
       <c r="E8" t="n">
-        <v>1361</v>
+        <v>747</v>
       </c>
       <c r="F8" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>814</v>
+        <v>515</v>
       </c>
       <c r="I8" t="n">
-        <v>12268</v>
+        <v>14683</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="L8" t="n">
-        <v>732</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9">
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I9" t="n">
-        <v>3077</v>
+        <v>4754</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1323</v>
+        <v>1219</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>934</v>
+        <v>369</v>
       </c>
       <c r="E10" t="n">
-        <v>1101</v>
+        <v>433</v>
       </c>
       <c r="F10" t="n">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5106</v>
+        <v>5623</v>
       </c>
       <c r="I10" t="n">
-        <v>8826</v>
+        <v>8483</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1019</v>
+        <v>1762</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="E11" t="n">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1980</v>
+        <v>807</v>
       </c>
       <c r="I11" t="n">
-        <v>14401</v>
+        <v>16905</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -902,31 +902,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2137</v>
+        <v>6468</v>
       </c>
       <c r="I12" t="n">
-        <v>13261</v>
+        <v>1207</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56</v>
+        <v>848</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>323</v>
+      </c>
+      <c r="E13" t="n">
+        <v>335</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>984</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11464</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>417</v>
-      </c>
-      <c r="E13" t="n">
-        <v>420</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>435</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12051</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="I14" t="n">
-        <v>3750</v>
+        <v>5203</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1022,31 +1022,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3065</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22337</v>
+        <v>24452</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21824</v>
+        <v>21667</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4375</v>
+        <v>4333</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>661</v>
+        <v>268</v>
       </c>
       <c r="E18" t="n">
-        <v>1874</v>
+        <v>728</v>
       </c>
       <c r="F18" t="n">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2787</v>
+        <v>2014</v>
       </c>
       <c r="I18" t="n">
-        <v>15027</v>
+        <v>13472</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>1051</v>
+        <v>407</v>
       </c>
       <c r="L18" t="n">
-        <v>20955</v>
+        <v>16061</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1050</v>
+        <v>1161</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>844</v>
+        <v>459.123</v>
       </c>
       <c r="E2" t="n">
-        <v>974</v>
+        <v>674.1279999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>3412</v>
+        <v>6298</v>
       </c>
       <c r="I2" t="n">
-        <v>20131</v>
+        <v>17287</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K2" t="n">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>1351</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="3">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4932</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>625</v>
+        <v>2537</v>
       </c>
       <c r="I4" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,31 +622,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1333</v>
+        <v>1514</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E5" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1623</v>
+        <v>372</v>
       </c>
       <c r="I5" t="n">
-        <v>32488</v>
+        <v>21009</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="E6" t="n">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>843</v>
+        <v>3188</v>
       </c>
       <c r="I6" t="n">
-        <v>85731</v>
+        <v>56183</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>672</v>
+        <v>814</v>
       </c>
       <c r="E8" t="n">
-        <v>747</v>
+        <v>934</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>515</v>
+        <v>679</v>
       </c>
       <c r="I8" t="n">
-        <v>14683</v>
+        <v>12572</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K8" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="L8" t="n">
-        <v>702</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9">
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4754</v>
+        <v>3333</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1219</v>
+        <v>1314</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>369</v>
+        <v>469</v>
       </c>
       <c r="E10" t="n">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>5623</v>
+        <v>382</v>
       </c>
       <c r="I10" t="n">
-        <v>8483</v>
+        <v>16122</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -862,31 +862,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="E11" t="n">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2596</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13186</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>807</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16905</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -902,31 +902,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F12" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6468</v>
+        <v>758</v>
       </c>
       <c r="I12" t="n">
-        <v>1207</v>
+        <v>12213</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="E13" t="n">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>984</v>
+        <v>80</v>
       </c>
       <c r="I13" t="n">
-        <v>11464</v>
+        <v>12211</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>388</v>
+        <v>1667</v>
       </c>
       <c r="I14" t="n">
-        <v>5203</v>
+        <v>8000</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="I15" t="n">
-        <v>24452</v>
+        <v>20861</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4286</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="I17" t="n">
-        <v>21667</v>
+        <v>15614</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4333</v>
+        <v>4345</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="E18" t="n">
-        <v>728</v>
+        <v>1230</v>
       </c>
       <c r="F18" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>2014</v>
+        <v>2196</v>
       </c>
       <c r="I18" t="n">
-        <v>13472</v>
+        <v>15134</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>407</v>
+        <v>682</v>
       </c>
       <c r="L18" t="n">
-        <v>16061</v>
+        <v>16032</v>
       </c>
     </row>
   </sheetData>

--- a/service/matchonactivity.xlsx
+++ b/service/matchonactivity.xlsx
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1161</v>
+        <v>1187</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>459.123</v>
+        <v>516.237</v>
       </c>
       <c r="E2" t="n">
-        <v>674.1279999999999</v>
+        <v>735.242</v>
       </c>
       <c r="F2" t="n">
         <v>77</v>
@@ -520,19 +520,19 @@
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>6298</v>
+        <v>5795</v>
       </c>
       <c r="I2" t="n">
-        <v>17287</v>
+        <v>19705</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L2" t="n">
-        <v>4936</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2537</v>
+        <v>2267</v>
       </c>
       <c r="I4" t="n">
-        <v>2800</v>
+        <v>3103</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E5" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="I5" t="n">
-        <v>21009</v>
+        <v>21607</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1638</v>
+        <v>1715</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E6" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F6" t="n">
         <v>11</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3188</v>
+        <v>3138</v>
       </c>
       <c r="I6" t="n">
-        <v>56183</v>
+        <v>56945</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8750</v>
+        <v>8824</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>814</v>
+        <v>904</v>
       </c>
       <c r="E8" t="n">
-        <v>934</v>
+        <v>1026</v>
       </c>
       <c r="F8" t="n">
         <v>43</v>
@@ -760,19 +760,19 @@
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>679</v>
+        <v>623</v>
       </c>
       <c r="I8" t="n">
-        <v>12572</v>
+        <v>13279</v>
       </c>
       <c r="J8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L8" t="n">
-        <v>1079</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -822,28 +822,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1314</v>
+        <v>1337</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="E10" t="n">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>382</v>
+        <v>5448</v>
       </c>
       <c r="I10" t="n">
-        <v>16122</v>
+        <v>15945</v>
       </c>
       <c r="J10" t="n">
         <v>9</v>
@@ -862,16 +862,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1765</v>
+        <v>1026</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="E11" t="n">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F11" t="n">
         <v>30</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2596</v>
+        <v>2265</v>
       </c>
       <c r="I11" t="n">
-        <v>13186</v>
+        <v>14148</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1376</v>
+        <v>1394</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="E13" t="n">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
@@ -960,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>12211</v>
+        <v>12739</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E15" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>787</v>
+        <v>1584</v>
       </c>
       <c r="I15" t="n">
-        <v>20861</v>
+        <v>21196</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4286</v>
+        <v>3750</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745</v>
+        <v>1771</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1429</v>
+        <v>1250</v>
       </c>
       <c r="I17" t="n">
-        <v>15614</v>
+        <v>15238</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4345</v>
+        <v>4405</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="E18" t="n">
-        <v>1230</v>
+        <v>1272</v>
       </c>
       <c r="F18" t="n">
         <v>79</v>
@@ -1160,19 +1160,19 @@
         <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>2196</v>
+        <v>2137</v>
       </c>
       <c r="I18" t="n">
-        <v>15134</v>
+        <v>16510</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="L18" t="n">
-        <v>16032</v>
+        <v>20014</v>
       </c>
     </row>
   </sheetData>
